--- a/library/transistors.xlsx
+++ b/library/transistors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\elem_altium_db2\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\elem_altium_db2\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EF1F60-E772-4DA0-AF3E-6BD5E4F285E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA116DC-9D8F-4CED-B852-9E7BEB0440AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="2115" windowWidth="18705" windowHeight="10440" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="nmos" sheetId="8" r:id="rId1"/>
@@ -461,11 +461,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -812,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A86DCBB-C7F7-4A7A-A3DD-2292F908D4B3}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +856,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
@@ -870,79 +868,79 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -959,13 +957,13 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="2"/>
       <c r="H6" t="s">
         <v>32</v>
       </c>
@@ -983,83 +981,83 @@
       <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="2"/>
       <c r="H7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1067,10 +1065,10 @@
       <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
@@ -1079,40 +1077,12 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A36DDB-75CB-4526-8B7C-3E1D54E638B5}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="A9" sqref="A9:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,204 +1133,165 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1369,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E342F99-7B21-453C-995C-4446AFFB9290}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="A3" sqref="A3:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,78 +1342,27 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1491,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D7E81C-1413-426F-8EBE-717C09928723}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,78 +1413,27 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
